--- a/Fremlæggelse/Excel over slides og fremlæggelse.xlsx
+++ b/Fremlæggelse/Excel over slides og fremlæggelse.xlsx
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +71,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,13 +101,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +516,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4">
@@ -868,7 +883,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24">
@@ -888,7 +903,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25">
@@ -910,7 +925,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26">
@@ -947,7 +962,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28">
@@ -962,7 +977,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29">
@@ -977,22 +992,22 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30">
         <v>0.5</v>
       </c>
       <c r="E30">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <f>C36</f>
+        <f>C37</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31">
@@ -1038,7 +1053,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35">
@@ -1046,7 +1061,7 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36">
@@ -1057,6 +1072,9 @@
       <c r="B37">
         <v>36</v>
       </c>
+      <c r="C37">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -1064,10 +1082,11 @@
       </c>
       <c r="C44">
         <f>SUM(C3:C43)</f>
-        <v>38.799999999999997</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>